--- a/test_with_answers.xlsx
+++ b/test_with_answers.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchenchen/Desktop/BIOCHEM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6178736C-A56F-6B43-8A96-F51265D1CBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="800">
   <si>
     <t>number</t>
   </si>
@@ -1235,17 +1241,1211 @@
   </si>
   <si>
     <t>figures/q_78_figure.png</t>
+  </si>
+  <si>
+    <t>採  取血液進行下列那一種檢測時，常使用酸洗管（acid-washed containers）及矽鋼針頭（silanized steel needle）？</t>
+  </si>
+  <si>
+    <t>錳</t>
+  </si>
+  <si>
+    <t>氯</t>
+  </si>
+  <si>
+    <t>氧</t>
+  </si>
+  <si>
+    <t>進  行下列何種血液氣體檢測時，應優先使用含肝素（heparin）之採血管並儘速送檢，以避免檢體久置造成檢 測數值降低？</t>
+  </si>
+  <si>
+    <t>血  氮分壓（pN₂）</t>
+  </si>
+  <si>
+    <t>一  氧化碳分壓（pCO）</t>
+  </si>
+  <si>
+    <t>二  氧化碳分壓（pCO₂）</t>
+  </si>
+  <si>
+    <t>血  氧分壓（pO₂）</t>
+  </si>
+  <si>
+    <t>肌  酸激酶（creatine kinase, CK）活性位置上之半胱胺酸（cysteine）容易被氧化為胱胺酸（cystine）而失 去活性，進行酵素檢測時，可在試劑中加入下列何者使 CK 再活化？</t>
+  </si>
+  <si>
+    <t>N -乙醯半胱胺酸（N-acetylcysteine）</t>
+  </si>
+  <si>
+    <t>蘇  胺酸（threonine）</t>
+  </si>
+  <si>
+    <t>A TP</t>
+  </si>
+  <si>
+    <t>N ADH</t>
+  </si>
+  <si>
+    <t>質  譜儀的組成元件中，通常不包含下列何者？</t>
+  </si>
+  <si>
+    <t>離  子源（ion source）</t>
+  </si>
+  <si>
+    <t>真  空（vacuum）系統</t>
+  </si>
+  <si>
+    <t>質  量分析器（mass analyzer）</t>
+  </si>
+  <si>
+    <t>光  譜儀（spectrophotometer）</t>
+  </si>
+  <si>
+    <t>以  層析法自混合物中純化或分離已知分子，通常最專一與快速的方式為下列何者？</t>
+  </si>
+  <si>
+    <t>i on-exchange chromatography</t>
+  </si>
+  <si>
+    <t>g el-filtration chromatography</t>
+  </si>
+  <si>
+    <t>a ffinity chromatography</t>
+  </si>
+  <si>
+    <t>t hin-layer chromatography</t>
+  </si>
+  <si>
+    <t>在  檢測值範圍有限的檢驗項目中，標準差（SD）通常穩定不受待測物濃度影響，則下列那一張圖最接近變異係 數（CV）和待測物濃度之關係？</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>figures/q_6_figure.png</t>
+  </si>
+  <si>
+    <t>利  用儀器進行自動化檢驗，下列何種措施最可以減少殘留污染（carryover contamination）？</t>
+  </si>
+  <si>
+    <t>利  用實驗室資訊條碼系統，標示識別各檢體</t>
+  </si>
+  <si>
+    <t>確  認自動化儀器電源電壓穩定性</t>
+  </si>
+  <si>
+    <t>使  用具拋棄式微量吸管的自動化儀器進行檢體與試劑吸注</t>
+  </si>
+  <si>
+    <t>檢  體上機前，確認檢體量足夠</t>
+  </si>
+  <si>
+    <t>關  於腎病症候群（nephrotic syndrome）患者的血清檢驗，下列那一個檢驗數值下降最顯著？</t>
+  </si>
+  <si>
+    <t>膽  固醇（cholesterol）</t>
+  </si>
+  <si>
+    <t>肌  酸酐（creatinine）</t>
+  </si>
+  <si>
+    <t>α  ₂ -巨球蛋白（α₂- macroglobulin）</t>
+  </si>
+  <si>
+    <t>白  蛋白（albumin）</t>
+  </si>
+  <si>
+    <t>關  於尿素循環（urea cycle），下列敘述何者錯誤？</t>
+  </si>
+  <si>
+    <t>主  要在肝細胞中進行</t>
+  </si>
+  <si>
+    <t>反  應發生於粒線體中與細胞質中</t>
+  </si>
+  <si>
+    <t>產  物之一為天門冬胺酸（aspartate）</t>
+  </si>
+  <si>
+    <t>催  化尿素形成的酵素為 arginase</t>
+  </si>
+  <si>
+    <t>有  關 C-reactive protein 的敘述，下列何者錯誤？</t>
+  </si>
+  <si>
+    <t>可  以和肺炎鏈球菌的細胞壁結合</t>
+  </si>
+  <si>
+    <t>由  五個次單元組成，總分子量約 23 kDa</t>
+  </si>
+  <si>
+    <t>急  性發炎反應的指標蛋白</t>
+  </si>
+  <si>
+    <t>體  內濃度上升可能有心血管疾病的風險</t>
+  </si>
+  <si>
+    <t>下  列何種變因不在 eGFR 的 CKD-EPI 公式內？</t>
+  </si>
+  <si>
+    <t>年  齡</t>
+  </si>
+  <si>
+    <t>種  族</t>
+  </si>
+  <si>
+    <t>性  別</t>
+  </si>
+  <si>
+    <t>尿  液體積</t>
+  </si>
+  <si>
+    <t>胺  基酸進行薄層層析後，以下列何試劑染色最佳？</t>
+  </si>
+  <si>
+    <t>p icrate</t>
+  </si>
+  <si>
+    <t>p hosphotungstate</t>
+  </si>
+  <si>
+    <t>n inhydrin</t>
+  </si>
+  <si>
+    <t>b iuret</t>
+  </si>
+  <si>
+    <t>下  列何種串聯之質譜技術最常用於鑑別同分異構胺基酸？</t>
+  </si>
+  <si>
+    <t>氣  相層析質譜（GC-MS）</t>
+  </si>
+  <si>
+    <t>液  相層析串聯質譜（LC-MS/MS）</t>
+  </si>
+  <si>
+    <t>感  應耦合電漿質譜（ICP-MS）</t>
+  </si>
+  <si>
+    <t>質  譜串聯質譜（MS/MS）</t>
+  </si>
+  <si>
+    <t>膠  原蛋白（collagen）會因脯胺酸（proline）上的何種作用而改變其結構彈性？</t>
+  </si>
+  <si>
+    <t>異  戊二烯化（prenylation）</t>
+  </si>
+  <si>
+    <t>磷  酸化（phosphorylation）</t>
+  </si>
+  <si>
+    <t>羥  化（hydroxylation）</t>
+  </si>
+  <si>
+    <t>醣  化（glycosylation）</t>
+  </si>
+  <si>
+    <t>關  於雙脲法（biuret）檢測方法之敘述，下列何者錯誤？</t>
+  </si>
+  <si>
+    <t>需  要銅離子與鹼性環境</t>
+  </si>
+  <si>
+    <t>常  用的蛋白質檢測方法</t>
+  </si>
+  <si>
+    <t>可  與三胜肽（tri-peptide）反應良好</t>
+  </si>
+  <si>
+    <t>透  過銅離子與游離胺基酸形成複合物（multivalent complex）</t>
+  </si>
+  <si>
+    <t>在  先天性代謝疾病中，黑尿症（alkaptonuria）是由於缺乏下列那一種酵素而引起的疾病？</t>
+  </si>
+  <si>
+    <t>p henylalanine hydroxylase</t>
+  </si>
+  <si>
+    <t>t yrosine aminotransferase</t>
+  </si>
+  <si>
+    <t>4 -OH-phenylpyruvate dioxygenase</t>
+  </si>
+  <si>
+    <t>h omogentisic acid oxidase</t>
+  </si>
+  <si>
+    <t>下  列何種胺基酸親水性最強？</t>
+  </si>
+  <si>
+    <t>丙  胺酸（alanine）</t>
+  </si>
+  <si>
+    <t>天  門冬胺酸（aspartate）</t>
+  </si>
+  <si>
+    <t>白  胺酸（leucine）</t>
+  </si>
+  <si>
+    <t>纈  胺酸（valine）</t>
+  </si>
+  <si>
+    <t>下  列何種方法主要是利用蛋白質帶電荷不同的特性進行分離？</t>
+  </si>
+  <si>
+    <t>c harcoal</t>
+  </si>
+  <si>
+    <t>g el filtration</t>
+  </si>
+  <si>
+    <t>i soelectric focusing</t>
+  </si>
+  <si>
+    <t>S DS-PAGE</t>
+  </si>
+  <si>
+    <t>有  關血清中 albumin 的敘述，下列何者錯誤？</t>
+  </si>
+  <si>
+    <t>為  蛋白營養攝取不良的指標</t>
+  </si>
+  <si>
+    <t>是  一種運輸蛋白</t>
+  </si>
+  <si>
+    <t>是  血清中含量最多的蛋白質</t>
+  </si>
+  <si>
+    <t>是  維持血漿中膠體滲透壓（colloid osmotic pressure）平衡的主要蛋白質</t>
+  </si>
+  <si>
+    <t>檢  測腎絲球過濾速率（glomerular filtration rate）的黃金標準（gold standard）需要用到下列何種物質 測定？</t>
+  </si>
+  <si>
+    <t>菊  糖（inulin）</t>
+  </si>
+  <si>
+    <t>尿  素（urea）</t>
+  </si>
+  <si>
+    <t>尿  酸（uric acid）</t>
+  </si>
+  <si>
+    <t>在   pH 8.6 血漿電泳中，下列何種蛋白最靠近負(-)極？</t>
+  </si>
+  <si>
+    <t>視  黃醇結合蛋白（retinol-binding protein）</t>
+  </si>
+  <si>
+    <t>α  -胎兒蛋白（α-fetoprotein）</t>
+  </si>
+  <si>
+    <t>運  鐵蛋白質（transferrin）</t>
+  </si>
+  <si>
+    <t>某  病人之血清脂蛋白電泳圖，顯示β帶明顯增加，可是血清外觀並無異樣，則下列敘述何者正確？</t>
+  </si>
+  <si>
+    <t>該  病人之 HDL 大量增加</t>
+  </si>
+  <si>
+    <t>可  能是該病人之 LPL 基因突變所導致</t>
+  </si>
+  <si>
+    <t>屬  於第三型高血脂症（type III hyperlipoproteinemia）</t>
+  </si>
+  <si>
+    <t>顯  示該病人血清中的膽固醇已過量</t>
+  </si>
+  <si>
+    <t>下  列何者可降低冠狀動脈心臟疾病（coronary heart disease, CHD）的發生風險？</t>
+  </si>
+  <si>
+    <t>h omocysteine 上升</t>
+  </si>
+  <si>
+    <t>L DL-C 上升</t>
+  </si>
+  <si>
+    <t>H DL-C 上升</t>
+  </si>
+  <si>
+    <t>L p(a)上升</t>
+  </si>
+  <si>
+    <t>下  列那兩種酮體（ketone body）在健康人血液內，其濃度幾乎相同？</t>
+  </si>
+  <si>
+    <t>丙  酮（acetone）與乙醯乙酸（acetoacetate）</t>
+  </si>
+  <si>
+    <t>乙  醯乙酸（acetoacetate）與β-羥基丁酸（β-hydroxybutyrate）</t>
+  </si>
+  <si>
+    <t>丙  酮（acetone）與β-羥基丁酸（β-hydroxybutyrate）</t>
+  </si>
+  <si>
+    <t>β  -羥基丁酸（β-hydroxybutyrate）與醋酸（acetate）</t>
+  </si>
+  <si>
+    <t>糖  尿病長期（long-term）監控指標是指下列何種生化血液檢驗？</t>
+  </si>
+  <si>
+    <t>飯  前血糖值檢驗</t>
+  </si>
+  <si>
+    <t>飯  後兩小時血糖值檢驗</t>
+  </si>
+  <si>
+    <t>果  糖胺（fructosamine）檢驗</t>
+  </si>
+  <si>
+    <t>糖  化血紅素（HbA₁c）檢驗</t>
+  </si>
+  <si>
+    <t>有  關第一型類胰島素生長因子（IGF-I）的敘述，下列何者正確？</t>
+  </si>
+  <si>
+    <t>由  胰臟製造</t>
+  </si>
+  <si>
+    <t>又  稱為 somatostatin</t>
+  </si>
+  <si>
+    <t>與  生長激素共同幫助細胞成長</t>
+  </si>
+  <si>
+    <t>I GF-1 缺乏會導致肢端肥大症</t>
+  </si>
+  <si>
+    <t>當  血糖測定時會產生 6-phosphogluconate 和 NADPH 產物，是下列何種試驗？</t>
+  </si>
+  <si>
+    <t>葡  萄糖氧化酶法</t>
+  </si>
+  <si>
+    <t>己  醣激酶法</t>
+  </si>
+  <si>
+    <t>B enedict's 試驗</t>
+  </si>
+  <si>
+    <t>葡  萄糖脫氫酶法</t>
+  </si>
+  <si>
+    <t>關  於腦脊髓液中葡萄糖濃度的敘述，下列何者錯誤？</t>
+  </si>
+  <si>
+    <t>約  為血漿葡萄糖的 60 %</t>
+  </si>
+  <si>
+    <t>當  細菌性腦膜炎時，腦脊髓液葡萄糖上升</t>
+  </si>
+  <si>
+    <t>適  合以葡萄糖氧化酶法測定</t>
+  </si>
+  <si>
+    <t>腦  脊髓液檢體通常不需要加抗凝劑</t>
+  </si>
+  <si>
+    <t>下  列那一種分子是膽固醇酯化酵素 lecithin cholesterol acyltransferase（LCAT）反應所需的輔因子 （cofactor）？</t>
+  </si>
+  <si>
+    <t>a po A-I</t>
+  </si>
+  <si>
+    <t>a po B-100</t>
+  </si>
+  <si>
+    <t>a po C-II</t>
+  </si>
+  <si>
+    <t>a po E</t>
+  </si>
+  <si>
+    <t>在  生化的轉換過程中，如果乙醯輔酶 A（acetyl-CoA）過量，會尋求可行路徑形成酮體（ketone body），下 列何者不屬於此類酮體分子？</t>
+  </si>
+  <si>
+    <t>乙  醯乙酸（acetoacetic acid）</t>
+  </si>
+  <si>
+    <t>β  -羥基丁酸（β-hydroxybutyric acid）</t>
+  </si>
+  <si>
+    <t>丙  酮（acetone）</t>
+  </si>
+  <si>
+    <t>乙  醯丙酮（acetylacetone）</t>
+  </si>
+  <si>
+    <t>以  間接法測定 LDL cholesterol（LDL-C）的公式中，下列何者可以用來評估 VLDL cholesterol（VLDL-C） 的量？</t>
+  </si>
+  <si>
+    <t>﹝  triglyceride﹞/ 2</t>
+  </si>
+  <si>
+    <t>﹝  triglyceride﹞/ 3</t>
+  </si>
+  <si>
+    <t>﹝  triglyceride﹞/ 4</t>
+  </si>
+  <si>
+    <t>﹝  triglyceride﹞/ 5</t>
+  </si>
+  <si>
+    <t>下  列那一分子並不含有長鏈脂肪酸（long-chain fatty acid）？</t>
+  </si>
+  <si>
+    <t>磷  脂質（phospholipid）</t>
+  </si>
+  <si>
+    <t>三  酸甘油脂（triglyceride）</t>
+  </si>
+  <si>
+    <t>鞘  磷脂（sphingolipid）</t>
+  </si>
+  <si>
+    <t>下  列何種遺傳疾病其血液中高密度脂蛋白（HDL）值偏低？</t>
+  </si>
+  <si>
+    <t>T ay-Sachs disease</t>
+  </si>
+  <si>
+    <t>T angier disease</t>
+  </si>
+  <si>
+    <t>N iemann-Pick disease</t>
+  </si>
+  <si>
+    <t>F abry disease</t>
+  </si>
+  <si>
+    <t>下  列何者為胰島素調節的葡萄糖轉運體（glucose transporter）？</t>
+  </si>
+  <si>
+    <t>G LUT1</t>
+  </si>
+  <si>
+    <t>G LUT2</t>
+  </si>
+  <si>
+    <t>G LUT3</t>
+  </si>
+  <si>
+    <t>G LUT4</t>
+  </si>
+  <si>
+    <t>S odium iodoacetate 加在血液檢體中，可以抑制下列何種反應？</t>
+  </si>
+  <si>
+    <t>糖  解反應</t>
+  </si>
+  <si>
+    <t>蛋  白質分解作用</t>
+  </si>
+  <si>
+    <t>脂  肪分解反應</t>
+  </si>
+  <si>
+    <t>糖  質新生作用</t>
+  </si>
+  <si>
+    <t>囊  性纖維化（cystic fibrosis）可經由下列何種檢驗來診斷？</t>
+  </si>
+  <si>
+    <t>血  中氯離子</t>
+  </si>
+  <si>
+    <t>汗  中氯離子</t>
+  </si>
+  <si>
+    <t>血  中鉀離子</t>
+  </si>
+  <si>
+    <t>汗  中鉀離子</t>
+  </si>
+  <si>
+    <t>有  關酵素之性質，下列敘述何者錯誤？</t>
+  </si>
+  <si>
+    <t>除  了極少數例外，一般來說酵素皆為蛋白分子</t>
+  </si>
+  <si>
+    <t>酵  素可降低生化反應中之活化能（activation energy）</t>
+  </si>
+  <si>
+    <t>所  有酵素皆需有某些特定金屬離子作為輔因子（cofactor）</t>
+  </si>
+  <si>
+    <t>同  樣的酵素在不同組織中的含量不一定相同</t>
+  </si>
+  <si>
+    <t>有  關非競爭型酵素抑制（noncompetitive inhibition）的敘述，下列何者正確？</t>
+  </si>
+  <si>
+    <t>是  不可逆的抑制反應（irreversible inhibition）</t>
+  </si>
+  <si>
+    <t>V max會隨著抑制劑的濃度增加而降低</t>
+  </si>
+  <si>
+    <t>抑  制劑多與受質結構相似並結合至酵素活性部位</t>
+  </si>
+  <si>
+    <t>K m上升</t>
+  </si>
+  <si>
+    <t>下  列何種酵素最不適用於評估胰臟相關疾病？</t>
+  </si>
+  <si>
+    <t>t rypsin</t>
+  </si>
+  <si>
+    <t>a cid phosphatase</t>
+  </si>
+  <si>
+    <t>l ipase</t>
+  </si>
+  <si>
+    <t>a mylase</t>
+  </si>
+  <si>
+    <t>膽  紅素（bilirubin）在肝臟代謝過程中主要與那一種物質結合？</t>
+  </si>
+  <si>
+    <t>g lucose</t>
+  </si>
+  <si>
+    <t>g lutathione</t>
+  </si>
+  <si>
+    <t>g luconic acid</t>
+  </si>
+  <si>
+    <t>g lucuronic acid</t>
+  </si>
+  <si>
+    <t>肝  臟的銅離子，主要可由下列何種蛋白質攜帶，經周邊血液運送至各器官組織？</t>
+  </si>
+  <si>
+    <t>a lbumin</t>
+  </si>
+  <si>
+    <t>c eruloplasmin</t>
+  </si>
+  <si>
+    <t>m acroglobulin</t>
+  </si>
+  <si>
+    <t>t ransferrin</t>
+  </si>
+  <si>
+    <t>血  漿白蛋白中的組胺酸（histidine）帶有何種功能基，可調節血液酸鹼平衡？</t>
+  </si>
+  <si>
+    <t>i midazole group</t>
+  </si>
+  <si>
+    <t>c arbonyl group</t>
+  </si>
+  <si>
+    <t>a mino group</t>
+  </si>
+  <si>
+    <t>m ethyl group</t>
+  </si>
+  <si>
+    <t>臨  床上高壓氧治療過度時，可能會發生下列那一種情形？</t>
+  </si>
+  <si>
+    <t>肺  部換氣減少，導致低碳酸血症（hypocarbia）</t>
+  </si>
+  <si>
+    <t>肺  部換氣減少，導致高碳酸血症（hypercarbia）</t>
+  </si>
+  <si>
+    <t>肺  部過度換氣，導致低碳酸血症（hypocarbia）</t>
+  </si>
+  <si>
+    <t>肺  部過度換氣，導致高碳酸血症（hypercarbia）</t>
+  </si>
+  <si>
+    <t>簡  易型脈衝式血氧飽和濃度計（pulse oximetry）偵測血氧飽和度（oxygen saturation, SO₂），使用那二 個波長？</t>
+  </si>
+  <si>
+    <t>4 80 nm and 540 nm</t>
+  </si>
+  <si>
+    <t>5 57 nm and 624 nm</t>
+  </si>
+  <si>
+    <t>6 50 nm and 805 nm</t>
+  </si>
+  <si>
+    <t>6 60 nm and 940 nm</t>
+  </si>
+  <si>
+    <t>肝  臟的功能包括生合成許多蛋白與生理所需的成分，但下列何者不是由肝臟生合成？</t>
+  </si>
+  <si>
+    <t>c oagulation factors</t>
+  </si>
+  <si>
+    <t>i mmunoglobulins</t>
+  </si>
+  <si>
+    <t>g lycogen</t>
+  </si>
+  <si>
+    <t>受  質 A、B、C、D 的 Km 值分別為 1、2、3、4，則上述何種受質與酵素的親和力（affinity）最高？</t>
+  </si>
+  <si>
+    <t>果  糖二磷酸（D-fructose-1,6-diphosphate）是下列何種生化酵素的催化受質？</t>
+  </si>
+  <si>
+    <t>a ldolase</t>
+  </si>
+  <si>
+    <t>c holine esterase</t>
+  </si>
+  <si>
+    <t>分  析下列何種生化酵素，反應試劑中要有適當的鎂離子（Mg²+）及鋅離子（Zn²+）比例？</t>
+  </si>
+  <si>
+    <t>g lutamate dehydrogenase</t>
+  </si>
+  <si>
+    <t>a lkaline phosphatase</t>
+  </si>
+  <si>
+    <t>g lucose-6-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>P rothrombin time 的檢測較適合評估何種肝臟功能？</t>
+  </si>
+  <si>
+    <t>排  泄功能（excretory function）</t>
+  </si>
+  <si>
+    <t>合  成功能（synthetic function）</t>
+  </si>
+  <si>
+    <t>代  謝功能（metabolic function）</t>
+  </si>
+  <si>
+    <t>儲  存功能（storage function）</t>
+  </si>
+  <si>
+    <t>有  關甲型胎兒蛋白（alpha-fetoprotein）的敘述，下列何者錯誤？</t>
+  </si>
+  <si>
+    <t>孕  母血液值上升，表示胎兒有神經管缺陷的高風險</t>
+  </si>
+  <si>
+    <t>孕  母血液值上升，表示胎兒有 Down syndrome 的高風險</t>
+  </si>
+  <si>
+    <t>成  人血液值上升，表示有肝細胞肝癌的高風險</t>
+  </si>
+  <si>
+    <t>成  人血液值上升，表示有肝硬化的高風險</t>
+  </si>
+  <si>
+    <t>L ipase 其 Enzyme Commission（EC）number 為（3.1.1.3），則它是屬於下列那一大類的酵素？</t>
+  </si>
+  <si>
+    <t>水  解酶（hydrolase）</t>
+  </si>
+  <si>
+    <t>氧  化還原酶（oxidoreductase）</t>
+  </si>
+  <si>
+    <t>轉  移酶（transferase）</t>
+  </si>
+  <si>
+    <t>連  接酶（ligase）</t>
+  </si>
+  <si>
+    <t>在  轉胺酶（aminotransferase）的催化反應中，需要下列何種分子做為其輔酶（coenzyme）？</t>
+  </si>
+  <si>
+    <t>v itamin B₁₂</t>
+  </si>
+  <si>
+    <t>p yridoxal-5'-phosphate（P-5'-P）</t>
+  </si>
+  <si>
+    <t>N ADPH</t>
+  </si>
+  <si>
+    <t>下  列何者不是心肌細胞損傷（myocyte injury）造成心臟衰竭的特異性標誌？</t>
+  </si>
+  <si>
+    <t>c TnT</t>
+  </si>
+  <si>
+    <t>C K-MB</t>
+  </si>
+  <si>
+    <t>H SP60</t>
+  </si>
+  <si>
+    <t>L DL</t>
+  </si>
+  <si>
+    <t>下  列何種血清檢體的酵素檢查，可應用於膽道阻塞性肝病（biliary obstruction）的檢測？</t>
+  </si>
+  <si>
+    <t>c reatine kinase（CK）</t>
+  </si>
+  <si>
+    <t>l actate dehydrogenase（LDH）</t>
+  </si>
+  <si>
+    <t>γ  -glutamyltransferase（GGT）</t>
+  </si>
+  <si>
+    <t>a spartate aminotransferase（AST）</t>
+  </si>
+  <si>
+    <t>下  列何者屬於心肌與骨骼肌的氧結合蛋白（oxygen binding protein）？</t>
+  </si>
+  <si>
+    <t>m yoglobin</t>
+  </si>
+  <si>
+    <t>t roponin</t>
+  </si>
+  <si>
+    <t>B -type natriuretic peptide</t>
+  </si>
+  <si>
+    <t>m yosin</t>
+  </si>
+  <si>
+    <t>下  列那兩者皆可降低磷在腎小管的再吸收？</t>
+  </si>
+  <si>
+    <t>p arathyroid hormone 及 fibroblast growth factor 23</t>
+  </si>
+  <si>
+    <t>p arathyroid hormone 及 calcitonin</t>
+  </si>
+  <si>
+    <t>f ibroblast growth factor 23 及 vitamin D</t>
+  </si>
+  <si>
+    <t>c alcitonin 及 vitamin D</t>
+  </si>
+  <si>
+    <t>臨  床上會以與 lectin LCA 結合力的大小不同將α-fetoprotein（AFP）加以分類，有關此分類的敘述下列何 者正確？</t>
+  </si>
+  <si>
+    <t>A FP-L3 之結合力最低，與肝硬化有關</t>
+  </si>
+  <si>
+    <t>A FP-L2 之結合力中等，與慢性肝炎有關</t>
+  </si>
+  <si>
+    <t>A FP-L3 之結合力最高，與卵黃囊腫瘤有關</t>
+  </si>
+  <si>
+    <t>A FP-L3 之結合力最高，與肝癌有關</t>
+  </si>
+  <si>
+    <t>下  列何項腫瘤標誌最適合當作追蹤乳癌復發？</t>
+  </si>
+  <si>
+    <t>C A 15-3</t>
+  </si>
+  <si>
+    <t>C A 125</t>
+  </si>
+  <si>
+    <t>A FP</t>
+  </si>
+  <si>
+    <t>P SA</t>
+  </si>
+  <si>
+    <t>對  於腫瘤標誌檢驗用於癌症診斷上，下列那一個觀念不恰當？</t>
+  </si>
+  <si>
+    <t>血  清中腫瘤標誌濃度偏高，應進行進一步診斷</t>
+  </si>
+  <si>
+    <t>即  便腫瘤標誌檢驗值在參考範圍內，也不能確定完全沒有惡性腫瘤</t>
+  </si>
+  <si>
+    <t>敏  感度與特異性不佳的腫瘤標誌檢驗，會限制其腫瘤診斷之臨床應用</t>
+  </si>
+  <si>
+    <t>全  基因定序可成為所有癌症的篩檢方法</t>
+  </si>
+  <si>
+    <t>下  列何種維生素的吸收及運輸過程需要 R-蛋白（R-protein, haptocorrin）及內在因子（intrinsic factor, IF）協助？</t>
+  </si>
+  <si>
+    <t>維  生素 B₁</t>
+  </si>
+  <si>
+    <t>維  生素 B₂</t>
+  </si>
+  <si>
+    <t>維  生素 B₆</t>
+  </si>
+  <si>
+    <t>維  生素 B₁₂</t>
+  </si>
+  <si>
+    <t>關  於原發性甲狀腺機能低下症（primary hypothyroidism）的敘述，下列何者較為正確？</t>
+  </si>
+  <si>
+    <t>甲  狀腺促素（TSH）的分泌減少</t>
+  </si>
+  <si>
+    <t>甲  狀腺促素釋素（TRH）的分泌減少</t>
+  </si>
+  <si>
+    <t>通  常無甲狀腺腫大症狀</t>
+  </si>
+  <si>
+    <t>產  生 thyroid peroxidase 抗體（anti-TPO）是主要成因之一</t>
+  </si>
+  <si>
+    <t>關  於黃體激素（progesterone）的敘述，下列何者正確？</t>
+  </si>
+  <si>
+    <t>與   cortisol 同為 21 個碳的賀爾蒙</t>
+  </si>
+  <si>
+    <t>性  激素結合球蛋白（SHBG）是主要的血液結合蛋白</t>
+  </si>
+  <si>
+    <t>第   3 個碳上的酮基與活性無關</t>
+  </si>
+  <si>
+    <t>第   4 個碳與第 5 個碳之間的雙鍵與活性無關</t>
+  </si>
+  <si>
+    <t>關  於皮質醇（cortisol）與醛固酮（aldosterone）的敘述，下列何者正確？</t>
+  </si>
+  <si>
+    <t>a ldosterone 的日分泌量高於 cortisol</t>
+  </si>
+  <si>
+    <t>兩  者的碳數目相同</t>
+  </si>
+  <si>
+    <t>兩  者的 hydroxyl group 數相同</t>
+  </si>
+  <si>
+    <t>兩  者皆由腎上腺顆粒層（zona glomerulosa）製造與分泌</t>
+  </si>
+  <si>
+    <t>關  於卡爾門氏症（Kallmann syndrome）的敘述，下列何者較為正確？</t>
+  </si>
+  <si>
+    <t>患  者 GnRH 減少，LH 與 FSH 減少</t>
+  </si>
+  <si>
+    <t>患  者 GnRH 減少，LH 與 FSH 增加</t>
+  </si>
+  <si>
+    <t>患  者 GnRH 增加，LH 與 FSH 增加</t>
+  </si>
+  <si>
+    <t>患  者 GnRH 增加，LH 與 FSH 減少</t>
+  </si>
+  <si>
+    <t>下  列那一種情形是因為下視丘－腦下垂體（hypothalamic-pituitary）功能異常，造成下視丘性無月經，血 中 E₂、LH、FSH 皆低，注射 GnRH 後，LH 與 FSH 反應正常？</t>
+  </si>
+  <si>
+    <t>神  經性厭食症（anorexia nervosa）</t>
+  </si>
+  <si>
+    <t>懷  孕（pregnancy）</t>
+  </si>
+  <si>
+    <t>早  發性卵巢衰竭（premature ovarian failure）</t>
+  </si>
+  <si>
+    <t>多  囊性卵巢症候群（polycystic ovary syndrome）</t>
+  </si>
+  <si>
+    <t>新  生兒體內缺乏甲狀腺素（thyroxine）會造成呆小症，最佳檢驗方法是檢測新生兒篩檢濾紙血片或血液中何 種物質？</t>
+  </si>
+  <si>
+    <t>T SH</t>
+  </si>
+  <si>
+    <t>T ₄</t>
+  </si>
+  <si>
+    <t>T ₃</t>
+  </si>
+  <si>
+    <t>t hyroglobulin</t>
+  </si>
+  <si>
+    <t>懷  孕初期 8～13 週左右時會有類似甲狀腺機能亢進症的症狀，可能原因是孕婦的何種賀爾蒙增加所導致？</t>
+  </si>
+  <si>
+    <t>雌  二醇（estradiol, E₂）</t>
+  </si>
+  <si>
+    <t>絨  毛膜性腺激素（β-human chorionic gonadotropin, β-hCG）</t>
+  </si>
+  <si>
+    <t>雌  三醇（estriol, E₃）</t>
+  </si>
+  <si>
+    <t>黃  體激素（progesterone）</t>
+  </si>
+  <si>
+    <t>調  節生物時鐘的褪黑素（melatonin）可以用來治療睡眠障礙，人體合成褪黑素是以何種胺基酸為前驅物 （precursor）？</t>
+  </si>
+  <si>
+    <t>苯  丙胺酸（phenylalanine）</t>
+  </si>
+  <si>
+    <t>酪  胺酸（tyrosine）</t>
+  </si>
+  <si>
+    <t>色  胺酸（tryptophan）</t>
+  </si>
+  <si>
+    <t>下  列何者不是腎臟產出的激素？</t>
+  </si>
+  <si>
+    <t>e rythropoietin</t>
+  </si>
+  <si>
+    <t>r enin</t>
+  </si>
+  <si>
+    <t>1 ,25-(OH)₂ cholecalciferol</t>
+  </si>
+  <si>
+    <t>2 5-(OH) cholecalciferol</t>
+  </si>
+  <si>
+    <t>胡  蘿蔔素為維生素 A 的先驅物，如果攝取過量最可能發生下列何種情形？</t>
+  </si>
+  <si>
+    <t>會  全數轉為維生素 A，但對身體沒有影響</t>
+  </si>
+  <si>
+    <t>會  造成胡蘿蔔素血症，但不會引起維生素 A 中毒</t>
+  </si>
+  <si>
+    <t>會  造成胡蘿蔔素血症及維生素 A 中毒</t>
+  </si>
+  <si>
+    <t>會  全數轉為維生素 A，並造成維生素 A 中毒</t>
+  </si>
+  <si>
+    <t>下  列何種母體血清檢驗常包括在唐氏症風險評估？</t>
+  </si>
+  <si>
+    <t>i nhibin A</t>
+  </si>
+  <si>
+    <t>v itamin A</t>
+  </si>
+  <si>
+    <t>i mmunoglobulin A</t>
+  </si>
+  <si>
+    <t>a polipoprotein A</t>
+  </si>
+  <si>
+    <t>有  關於 tacrolimus 的敘述，下列敘述何者錯誤？</t>
+  </si>
+  <si>
+    <t>其  血中濃度和毒性有相關性，但和器官移植排斥沒有相關性</t>
+  </si>
+  <si>
+    <t>又  稱為 FK506，具有免疫抑制的功用</t>
+  </si>
+  <si>
+    <t>其  代謝是藉由體內 cytochrome P450 3A 家族的酵素作用</t>
+  </si>
+  <si>
+    <t>病  人血中如存在其抗體，會影響檢驗結果</t>
+  </si>
+  <si>
+    <t>以  氣相層析法（GC）檢測血液中 CO 濃度，下列敘述何者正確？</t>
+  </si>
+  <si>
+    <t>為  目前最快速的檢測法，方便且正確</t>
+  </si>
+  <si>
+    <t>全  血必須以 potassium ferricyanide 進行前處理</t>
+  </si>
+  <si>
+    <t>C O-Hb 在前處理後，產物有 Fe²+-Hb 可檢測</t>
+  </si>
+  <si>
+    <t>C O-Hb 在前處理後，產物有 CO₂ 可檢測</t>
+  </si>
+  <si>
+    <t>下  列那一種類的治療藥物最不需要作監測？</t>
+  </si>
+  <si>
+    <t>有  效濃度範圍狹窄者</t>
+  </si>
+  <si>
+    <t>在  患者身上尚未有效，卻已出現毒性反應者</t>
+  </si>
+  <si>
+    <t>有  其他客觀性方法判定療效者</t>
+  </si>
+  <si>
+    <t>在  不同個體中代謝差異較大者</t>
+  </si>
+  <si>
+    <t>下  列何種因素最能藉由影響藥物的排泄（excretion），進而影響藥物在體內的動向（drug disposition）？</t>
+  </si>
+  <si>
+    <t>同  時服用的藥物，競爭了腎小管的分泌路徑（renal tubular secretory paths）</t>
+  </si>
+  <si>
+    <t>同  時服用的藥物，競爭了血漿蛋白的結合</t>
+  </si>
+  <si>
+    <t>同  時服用的藥物，抑制了代謝酵素的活性</t>
+  </si>
+  <si>
+    <t>同  時服用的藥物，影響腸道中轉運蛋白（transporters）的活性</t>
+  </si>
+  <si>
+    <t>下  列何種金屬與老舊房屋油漆引起的中毒最相關？</t>
+  </si>
+  <si>
+    <t>鉛  （Pb）</t>
+  </si>
+  <si>
+    <t>銅  （Cu）</t>
+  </si>
+  <si>
+    <t>砷  （As）</t>
+  </si>
+  <si>
+    <t>鋁  （Al）</t>
+  </si>
+  <si>
+    <t>下  列何種技術並未應用於次世代定序儀（NGS）來偵測基因突變？</t>
+  </si>
+  <si>
+    <t>焦  磷酸反應定序（pyrosequencing）</t>
+  </si>
+  <si>
+    <t>離  子半導體定序（ion semiconductor sequencing）</t>
+  </si>
+  <si>
+    <t>奈  米孔定序（nanopore sequencing）</t>
+  </si>
+  <si>
+    <t>增  幅阻礙突變系統（amplification refractory mutation system, ARMS）</t>
+  </si>
+  <si>
+    <t>實  驗室開發檢測技術（LDTs）需要特別規範與管理，最主要的原因為何？</t>
+  </si>
+  <si>
+    <t>所  使用的檢驗設備通常為昂貴之貴重儀器</t>
+  </si>
+  <si>
+    <t>所  應用的檢驗原理多為複雜技術</t>
+  </si>
+  <si>
+    <t>所  檢測的結果影響到病人疾病診斷與治療</t>
+  </si>
+  <si>
+    <t>所  帶動的產業商機龐大</t>
+  </si>
+  <si>
+    <t>亞  硫酸氫鹽處理（bisulfite treatment）常用於分析 DNA 的那一種修飾？</t>
+  </si>
+  <si>
+    <t>甲  基化（methylation）</t>
+  </si>
+  <si>
+    <t>乙  醯化（acetylation）</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>未分類</t>
+  </si>
+  <si>
+    <t>免疫分析技術及腫瘤標誌</t>
+  </si>
+  <si>
+    <t>蛋白質與胺基酸</t>
+  </si>
+  <si>
+    <t>基礎實原理,步驟及參考值</t>
+  </si>
+  <si>
+    <t>非蛋白質氮類與腎功能</t>
+  </si>
+  <si>
+    <t>酸鹼平衡與血液氣體</t>
+  </si>
+  <si>
+    <t>毒物分析</t>
+  </si>
+  <si>
+    <t>電解質及無機元素</t>
+  </si>
+  <si>
+    <t>脂肪與脂蛋白</t>
+  </si>
+  <si>
+    <t>醣類</t>
+  </si>
+  <si>
+    <t>肝,胃,胰,腸之功能</t>
+  </si>
+  <si>
+    <t>荷爾蒙</t>
+  </si>
+  <si>
+    <t>藥物治療監控</t>
+  </si>
+  <si>
+    <t>臨床生化學之儀器</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1258,7 +2458,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1266,18 +2466,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1298,7 +2524,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="q_78_figure.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="q_78_figure.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1321,13 +2553,57 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>987425</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1952625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="q_6_figure.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F0A6BC-FCC6-B146-A7D3-E0ABB790ECE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19821525" y="1114425"/>
+          <a:ext cx="939800" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1365,7 +2641,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1399,6 +2675,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1433,9 +2710,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1608,17 +2886,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="8" max="8" width="50.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1643,8 +2923,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1666,8 +2949,11 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1689,8 +2975,11 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1712,8 +3001,11 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1735,8 +3027,11 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1758,8 +3053,11 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1781,8 +3079,11 @@
       <c r="G7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1804,8 +3105,11 @@
       <c r="G8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1827,8 +3131,11 @@
       <c r="G9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1850,8 +3157,11 @@
       <c r="G10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1873,8 +3183,11 @@
       <c r="G11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1896,8 +3209,11 @@
       <c r="G12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1919,8 +3235,11 @@
       <c r="G13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1942,8 +3261,11 @@
       <c r="G14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1965,8 +3287,11 @@
       <c r="G15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1988,8 +3313,11 @@
       <c r="G16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2011,8 +3339,11 @@
       <c r="G17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2034,8 +3365,11 @@
       <c r="G18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2057,8 +3391,11 @@
       <c r="G19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2080,8 +3417,11 @@
       <c r="G20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2103,8 +3443,11 @@
       <c r="G21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2126,8 +3469,11 @@
       <c r="G22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2149,8 +3495,11 @@
       <c r="G23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2172,8 +3521,11 @@
       <c r="G24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2195,8 +3547,11 @@
       <c r="G25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2218,8 +3573,11 @@
       <c r="G26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2241,8 +3599,11 @@
       <c r="G27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2264,8 +3625,11 @@
       <c r="G28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2287,8 +3651,11 @@
       <c r="G29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2310,8 +3677,11 @@
       <c r="G30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2333,8 +3703,11 @@
       <c r="G31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2356,8 +3729,11 @@
       <c r="G32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2379,8 +3755,11 @@
       <c r="G33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2402,8 +3781,11 @@
       <c r="G34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2425,8 +3807,11 @@
       <c r="G35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2448,8 +3833,11 @@
       <c r="G36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2471,8 +3859,11 @@
       <c r="G37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2494,8 +3885,11 @@
       <c r="G38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2517,8 +3911,11 @@
       <c r="G39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2540,8 +3937,11 @@
       <c r="G40" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2563,8 +3963,11 @@
       <c r="G41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2586,8 +3989,11 @@
       <c r="G42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2609,8 +4015,11 @@
       <c r="G43" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2632,8 +4041,11 @@
       <c r="G44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2655,8 +4067,11 @@
       <c r="G45" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2678,8 +4093,11 @@
       <c r="G46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2701,8 +4119,11 @@
       <c r="G47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2724,8 +4145,11 @@
       <c r="G48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2747,8 +4171,11 @@
       <c r="G49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2770,8 +4197,11 @@
       <c r="G50" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2793,8 +4223,11 @@
       <c r="G51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2816,8 +4249,11 @@
       <c r="G52" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2839,8 +4275,11 @@
       <c r="G53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2862,8 +4301,11 @@
       <c r="G54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2885,8 +4327,11 @@
       <c r="G55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2908,8 +4353,11 @@
       <c r="G56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2931,8 +4379,11 @@
       <c r="G57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2954,8 +4405,11 @@
       <c r="G58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="I58" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2977,8 +4431,11 @@
       <c r="G59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="I59" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3000,8 +4457,11 @@
       <c r="G60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="I60" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3023,8 +4483,11 @@
       <c r="G61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="I61" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3046,8 +4509,11 @@
       <c r="G62" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="I62" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3069,8 +4535,11 @@
       <c r="G63" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="I63" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3092,8 +4561,11 @@
       <c r="G64" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3115,8 +4587,11 @@
       <c r="G65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3138,8 +4613,11 @@
       <c r="G66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3161,8 +4639,11 @@
       <c r="G67" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3184,8 +4665,11 @@
       <c r="G68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3207,8 +4691,11 @@
       <c r="G69" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3230,8 +4717,11 @@
       <c r="G70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3253,8 +4743,11 @@
       <c r="G71" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3276,8 +4769,11 @@
       <c r="G72" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3299,8 +4795,11 @@
       <c r="G73" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3322,8 +4821,11 @@
       <c r="G74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3345,8 +4847,11 @@
       <c r="G75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3368,8 +4873,11 @@
       <c r="G76" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3391,8 +4899,11 @@
       <c r="G77" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3414,8 +4925,11 @@
       <c r="G78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="118.23" customHeight="1">
+      <c r="I78" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="118.25" customHeight="1">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3440,8 +4954,11 @@
       <c r="H79" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3463,8 +4980,11 @@
       <c r="G80" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="I80" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3486,8 +5006,2063 @@
       <c r="G81" t="s">
         <v>2</v>
       </c>
+      <c r="I81" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>407</v>
+      </c>
+      <c r="C82" t="s">
+        <v>408</v>
+      </c>
+      <c r="D82" t="s">
+        <v>291</v>
+      </c>
+      <c r="E82" t="s">
+        <v>409</v>
+      </c>
+      <c r="F82" t="s">
+        <v>410</v>
+      </c>
+      <c r="G82" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>411</v>
+      </c>
+      <c r="C83" t="s">
+        <v>412</v>
+      </c>
+      <c r="D83" t="s">
+        <v>413</v>
+      </c>
+      <c r="E83" t="s">
+        <v>414</v>
+      </c>
+      <c r="F83" t="s">
+        <v>415</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>416</v>
+      </c>
+      <c r="C84" t="s">
+        <v>417</v>
+      </c>
+      <c r="D84" t="s">
+        <v>418</v>
+      </c>
+      <c r="E84" t="s">
+        <v>419</v>
+      </c>
+      <c r="F84" t="s">
+        <v>420</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>421</v>
+      </c>
+      <c r="C85" t="s">
+        <v>422</v>
+      </c>
+      <c r="D85" t="s">
+        <v>423</v>
+      </c>
+      <c r="E85" t="s">
+        <v>424</v>
+      </c>
+      <c r="F85" t="s">
+        <v>425</v>
+      </c>
+      <c r="G85" t="s">
+        <v>5</v>
+      </c>
+      <c r="I85" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>426</v>
+      </c>
+      <c r="C86" t="s">
+        <v>427</v>
+      </c>
+      <c r="D86" t="s">
+        <v>428</v>
+      </c>
+      <c r="E86" t="s">
+        <v>429</v>
+      </c>
+      <c r="F86" t="s">
+        <v>430</v>
+      </c>
+      <c r="G86" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>431</v>
+      </c>
+      <c r="C87" t="s">
+        <v>432</v>
+      </c>
+      <c r="E87" t="s">
+        <v>433</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>434</v>
+      </c>
+      <c r="I87" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>435</v>
+      </c>
+      <c r="C88" t="s">
+        <v>436</v>
+      </c>
+      <c r="D88" t="s">
+        <v>437</v>
+      </c>
+      <c r="E88" t="s">
+        <v>438</v>
+      </c>
+      <c r="F88" t="s">
+        <v>439</v>
+      </c>
+      <c r="G88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>440</v>
+      </c>
+      <c r="C89" t="s">
+        <v>441</v>
+      </c>
+      <c r="D89" t="s">
+        <v>442</v>
+      </c>
+      <c r="E89" t="s">
+        <v>443</v>
+      </c>
+      <c r="F89" t="s">
+        <v>444</v>
+      </c>
+      <c r="G89" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>445</v>
+      </c>
+      <c r="C90" t="s">
+        <v>446</v>
+      </c>
+      <c r="D90" t="s">
+        <v>447</v>
+      </c>
+      <c r="E90" t="s">
+        <v>448</v>
+      </c>
+      <c r="F90" t="s">
+        <v>449</v>
+      </c>
+      <c r="G90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>450</v>
+      </c>
+      <c r="C91" t="s">
+        <v>451</v>
+      </c>
+      <c r="D91" t="s">
+        <v>452</v>
+      </c>
+      <c r="E91" t="s">
+        <v>453</v>
+      </c>
+      <c r="F91" t="s">
+        <v>454</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>455</v>
+      </c>
+      <c r="C92" t="s">
+        <v>456</v>
+      </c>
+      <c r="D92" t="s">
+        <v>457</v>
+      </c>
+      <c r="E92" t="s">
+        <v>458</v>
+      </c>
+      <c r="F92" t="s">
+        <v>459</v>
+      </c>
+      <c r="G92" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>460</v>
+      </c>
+      <c r="C93" t="s">
+        <v>461</v>
+      </c>
+      <c r="D93" t="s">
+        <v>462</v>
+      </c>
+      <c r="E93" t="s">
+        <v>463</v>
+      </c>
+      <c r="F93" t="s">
+        <v>464</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>465</v>
+      </c>
+      <c r="C94" t="s">
+        <v>466</v>
+      </c>
+      <c r="D94" t="s">
+        <v>467</v>
+      </c>
+      <c r="E94" t="s">
+        <v>468</v>
+      </c>
+      <c r="F94" t="s">
+        <v>469</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>470</v>
+      </c>
+      <c r="C95" t="s">
+        <v>471</v>
+      </c>
+      <c r="D95" t="s">
+        <v>472</v>
+      </c>
+      <c r="E95" t="s">
+        <v>473</v>
+      </c>
+      <c r="F95" t="s">
+        <v>474</v>
+      </c>
+      <c r="G95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>475</v>
+      </c>
+      <c r="C96" t="s">
+        <v>476</v>
+      </c>
+      <c r="D96" t="s">
+        <v>477</v>
+      </c>
+      <c r="E96" t="s">
+        <v>478</v>
+      </c>
+      <c r="F96" t="s">
+        <v>479</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="I96" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>480</v>
+      </c>
+      <c r="C97" t="s">
+        <v>481</v>
+      </c>
+      <c r="D97" t="s">
+        <v>482</v>
+      </c>
+      <c r="E97" t="s">
+        <v>483</v>
+      </c>
+      <c r="F97" t="s">
+        <v>484</v>
+      </c>
+      <c r="G97" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>485</v>
+      </c>
+      <c r="C98" t="s">
+        <v>486</v>
+      </c>
+      <c r="D98" t="s">
+        <v>487</v>
+      </c>
+      <c r="E98" t="s">
+        <v>488</v>
+      </c>
+      <c r="F98" t="s">
+        <v>489</v>
+      </c>
+      <c r="G98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>490</v>
+      </c>
+      <c r="C99" t="s">
+        <v>491</v>
+      </c>
+      <c r="D99" t="s">
+        <v>492</v>
+      </c>
+      <c r="E99" t="s">
+        <v>493</v>
+      </c>
+      <c r="F99" t="s">
+        <v>494</v>
+      </c>
+      <c r="G99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>495</v>
+      </c>
+      <c r="C100" t="s">
+        <v>496</v>
+      </c>
+      <c r="D100" t="s">
+        <v>497</v>
+      </c>
+      <c r="E100" t="s">
+        <v>498</v>
+      </c>
+      <c r="F100" t="s">
+        <v>499</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>500</v>
+      </c>
+      <c r="C101" t="s">
+        <v>501</v>
+      </c>
+      <c r="D101" t="s">
+        <v>502</v>
+      </c>
+      <c r="E101" t="s">
+        <v>503</v>
+      </c>
+      <c r="F101" t="s">
+        <v>442</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>504</v>
+      </c>
+      <c r="C102" t="s">
+        <v>505</v>
+      </c>
+      <c r="D102" t="s">
+        <v>444</v>
+      </c>
+      <c r="E102" t="s">
+        <v>506</v>
+      </c>
+      <c r="F102" t="s">
+        <v>507</v>
+      </c>
+      <c r="G102" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>508</v>
+      </c>
+      <c r="C103" t="s">
+        <v>509</v>
+      </c>
+      <c r="D103" t="s">
+        <v>510</v>
+      </c>
+      <c r="E103" t="s">
+        <v>511</v>
+      </c>
+      <c r="F103" t="s">
+        <v>512</v>
+      </c>
+      <c r="G103" t="s">
+        <v>5</v>
+      </c>
+      <c r="I103" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>513</v>
+      </c>
+      <c r="C104" t="s">
+        <v>514</v>
+      </c>
+      <c r="D104" t="s">
+        <v>515</v>
+      </c>
+      <c r="E104" t="s">
+        <v>516</v>
+      </c>
+      <c r="F104" t="s">
+        <v>517</v>
+      </c>
+      <c r="G104" t="s">
+        <v>4</v>
+      </c>
+      <c r="I104" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>518</v>
+      </c>
+      <c r="C105" t="s">
+        <v>519</v>
+      </c>
+      <c r="D105" t="s">
+        <v>520</v>
+      </c>
+      <c r="E105" t="s">
+        <v>521</v>
+      </c>
+      <c r="F105" t="s">
+        <v>522</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="I105" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>523</v>
+      </c>
+      <c r="C106" t="s">
+        <v>524</v>
+      </c>
+      <c r="D106" t="s">
+        <v>525</v>
+      </c>
+      <c r="E106" t="s">
+        <v>526</v>
+      </c>
+      <c r="F106" t="s">
+        <v>527</v>
+      </c>
+      <c r="G106" t="s">
+        <v>5</v>
+      </c>
+      <c r="I106" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>528</v>
+      </c>
+      <c r="C107" t="s">
+        <v>529</v>
+      </c>
+      <c r="D107" t="s">
+        <v>530</v>
+      </c>
+      <c r="E107" t="s">
+        <v>531</v>
+      </c>
+      <c r="F107" t="s">
+        <v>532</v>
+      </c>
+      <c r="G107" t="s">
+        <v>4</v>
+      </c>
+      <c r="I107" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>533</v>
+      </c>
+      <c r="C108" t="s">
+        <v>534</v>
+      </c>
+      <c r="D108" t="s">
+        <v>535</v>
+      </c>
+      <c r="E108" t="s">
+        <v>536</v>
+      </c>
+      <c r="F108" t="s">
+        <v>537</v>
+      </c>
+      <c r="G108" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>538</v>
+      </c>
+      <c r="C109" t="s">
+        <v>539</v>
+      </c>
+      <c r="D109" t="s">
+        <v>540</v>
+      </c>
+      <c r="E109" t="s">
+        <v>541</v>
+      </c>
+      <c r="F109" t="s">
+        <v>542</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>543</v>
+      </c>
+      <c r="C110" t="s">
+        <v>544</v>
+      </c>
+      <c r="D110" t="s">
+        <v>545</v>
+      </c>
+      <c r="E110" t="s">
+        <v>546</v>
+      </c>
+      <c r="F110" t="s">
+        <v>547</v>
+      </c>
+      <c r="G110" t="s">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>548</v>
+      </c>
+      <c r="C111" t="s">
+        <v>549</v>
+      </c>
+      <c r="D111" t="s">
+        <v>550</v>
+      </c>
+      <c r="E111" t="s">
+        <v>551</v>
+      </c>
+      <c r="F111" t="s">
+        <v>552</v>
+      </c>
+      <c r="G111" t="s">
+        <v>5</v>
+      </c>
+      <c r="I111" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>553</v>
+      </c>
+      <c r="C112" t="s">
+        <v>554</v>
+      </c>
+      <c r="D112" t="s">
+        <v>555</v>
+      </c>
+      <c r="E112" t="s">
+        <v>556</v>
+      </c>
+      <c r="F112" t="s">
+        <v>557</v>
+      </c>
+      <c r="G112" t="s">
+        <v>5</v>
+      </c>
+      <c r="I112" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>558</v>
+      </c>
+      <c r="C113" t="s">
+        <v>559</v>
+      </c>
+      <c r="D113" t="s">
+        <v>560</v>
+      </c>
+      <c r="E113" t="s">
+        <v>441</v>
+      </c>
+      <c r="F113" t="s">
+        <v>561</v>
+      </c>
+      <c r="G113" t="s">
+        <v>4</v>
+      </c>
+      <c r="I113" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>562</v>
+      </c>
+      <c r="C114" t="s">
+        <v>563</v>
+      </c>
+      <c r="D114" t="s">
+        <v>564</v>
+      </c>
+      <c r="E114" t="s">
+        <v>565</v>
+      </c>
+      <c r="F114" t="s">
+        <v>566</v>
+      </c>
+      <c r="G114" t="s">
+        <v>3</v>
+      </c>
+      <c r="I114" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>567</v>
+      </c>
+      <c r="C115" t="s">
+        <v>568</v>
+      </c>
+      <c r="D115" t="s">
+        <v>569</v>
+      </c>
+      <c r="E115" t="s">
+        <v>570</v>
+      </c>
+      <c r="F115" t="s">
+        <v>571</v>
+      </c>
+      <c r="G115" t="s">
+        <v>5</v>
+      </c>
+      <c r="I115" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>572</v>
+      </c>
+      <c r="C116" t="s">
+        <v>573</v>
+      </c>
+      <c r="D116" t="s">
+        <v>574</v>
+      </c>
+      <c r="E116" t="s">
+        <v>575</v>
+      </c>
+      <c r="F116" t="s">
+        <v>576</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>577</v>
+      </c>
+      <c r="C117" t="s">
+        <v>578</v>
+      </c>
+      <c r="D117" t="s">
+        <v>579</v>
+      </c>
+      <c r="E117" t="s">
+        <v>580</v>
+      </c>
+      <c r="F117" t="s">
+        <v>581</v>
+      </c>
+      <c r="G117" t="s">
+        <v>3</v>
+      </c>
+      <c r="I117" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>582</v>
+      </c>
+      <c r="C118" t="s">
+        <v>583</v>
+      </c>
+      <c r="D118" t="s">
+        <v>584</v>
+      </c>
+      <c r="E118" t="s">
+        <v>585</v>
+      </c>
+      <c r="F118" t="s">
+        <v>586</v>
+      </c>
+      <c r="G118" t="s">
+        <v>4</v>
+      </c>
+      <c r="I118" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>587</v>
+      </c>
+      <c r="C119" t="s">
+        <v>588</v>
+      </c>
+      <c r="D119" t="s">
+        <v>589</v>
+      </c>
+      <c r="E119" t="s">
+        <v>590</v>
+      </c>
+      <c r="F119" t="s">
+        <v>591</v>
+      </c>
+      <c r="G119" t="s">
+        <v>3</v>
+      </c>
+      <c r="I119" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>592</v>
+      </c>
+      <c r="C120" t="s">
+        <v>593</v>
+      </c>
+      <c r="D120" t="s">
+        <v>594</v>
+      </c>
+      <c r="E120" t="s">
+        <v>595</v>
+      </c>
+      <c r="F120" t="s">
+        <v>596</v>
+      </c>
+      <c r="G120" t="s">
+        <v>3</v>
+      </c>
+      <c r="I120" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>597</v>
+      </c>
+      <c r="C121" t="s">
+        <v>598</v>
+      </c>
+      <c r="D121" t="s">
+        <v>599</v>
+      </c>
+      <c r="E121" t="s">
+        <v>600</v>
+      </c>
+      <c r="F121" t="s">
+        <v>601</v>
+      </c>
+      <c r="G121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I121" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>602</v>
+      </c>
+      <c r="C122" t="s">
+        <v>603</v>
+      </c>
+      <c r="D122" t="s">
+        <v>604</v>
+      </c>
+      <c r="E122" t="s">
+        <v>605</v>
+      </c>
+      <c r="F122" t="s">
+        <v>606</v>
+      </c>
+      <c r="G122" t="s">
+        <v>3</v>
+      </c>
+      <c r="I122" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>607</v>
+      </c>
+      <c r="C123" t="s">
+        <v>608</v>
+      </c>
+      <c r="D123" t="s">
+        <v>609</v>
+      </c>
+      <c r="E123" t="s">
+        <v>610</v>
+      </c>
+      <c r="F123" t="s">
+        <v>611</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>612</v>
+      </c>
+      <c r="C124" t="s">
+        <v>613</v>
+      </c>
+      <c r="D124" t="s">
+        <v>614</v>
+      </c>
+      <c r="E124" t="s">
+        <v>615</v>
+      </c>
+      <c r="F124" t="s">
+        <v>616</v>
+      </c>
+      <c r="G124" t="s">
+        <v>3</v>
+      </c>
+      <c r="I124" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>617</v>
+      </c>
+      <c r="C125" t="s">
+        <v>618</v>
+      </c>
+      <c r="D125" t="s">
+        <v>619</v>
+      </c>
+      <c r="E125" t="s">
+        <v>620</v>
+      </c>
+      <c r="F125" t="s">
+        <v>621</v>
+      </c>
+      <c r="G125" t="s">
+        <v>5</v>
+      </c>
+      <c r="I125" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>622</v>
+      </c>
+      <c r="C126" t="s">
+        <v>603</v>
+      </c>
+      <c r="D126" t="s">
+        <v>623</v>
+      </c>
+      <c r="E126" t="s">
+        <v>624</v>
+      </c>
+      <c r="F126" t="s">
+        <v>625</v>
+      </c>
+      <c r="G126" t="s">
+        <v>4</v>
+      </c>
+      <c r="I126" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>626</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>2</v>
+      </c>
+      <c r="I127" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>627</v>
+      </c>
+      <c r="C128" t="s">
+        <v>628</v>
+      </c>
+      <c r="D128" t="s">
+        <v>596</v>
+      </c>
+      <c r="E128" t="s">
+        <v>595</v>
+      </c>
+      <c r="F128" t="s">
+        <v>629</v>
+      </c>
+      <c r="G128" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>630</v>
+      </c>
+      <c r="C129" t="s">
+        <v>631</v>
+      </c>
+      <c r="D129" t="s">
+        <v>632</v>
+      </c>
+      <c r="E129" t="s">
+        <v>596</v>
+      </c>
+      <c r="F129" t="s">
+        <v>633</v>
+      </c>
+      <c r="G129" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>634</v>
+      </c>
+      <c r="C130" t="s">
+        <v>635</v>
+      </c>
+      <c r="D130" t="s">
+        <v>636</v>
+      </c>
+      <c r="E130" t="s">
+        <v>637</v>
+      </c>
+      <c r="F130" t="s">
+        <v>638</v>
+      </c>
+      <c r="G130" t="s">
+        <v>3</v>
+      </c>
+      <c r="I130" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>639</v>
+      </c>
+      <c r="C131" t="s">
+        <v>640</v>
+      </c>
+      <c r="D131" t="s">
+        <v>641</v>
+      </c>
+      <c r="E131" t="s">
+        <v>642</v>
+      </c>
+      <c r="F131" t="s">
+        <v>643</v>
+      </c>
+      <c r="G131" t="s">
+        <v>3</v>
+      </c>
+      <c r="I131" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>644</v>
+      </c>
+      <c r="C132" t="s">
+        <v>645</v>
+      </c>
+      <c r="D132" t="s">
+        <v>646</v>
+      </c>
+      <c r="E132" t="s">
+        <v>647</v>
+      </c>
+      <c r="F132" t="s">
+        <v>648</v>
+      </c>
+      <c r="G132" t="s">
+        <v>2</v>
+      </c>
+      <c r="I132" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>649</v>
+      </c>
+      <c r="C133" t="s">
+        <v>650</v>
+      </c>
+      <c r="D133" t="s">
+        <v>651</v>
+      </c>
+      <c r="E133" t="s">
+        <v>420</v>
+      </c>
+      <c r="F133" t="s">
+        <v>652</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3</v>
+      </c>
+      <c r="I133" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>653</v>
+      </c>
+      <c r="C134" t="s">
+        <v>654</v>
+      </c>
+      <c r="D134" t="s">
+        <v>655</v>
+      </c>
+      <c r="E134" t="s">
+        <v>656</v>
+      </c>
+      <c r="F134" t="s">
+        <v>657</v>
+      </c>
+      <c r="G134" t="s">
+        <v>5</v>
+      </c>
+      <c r="I134" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>658</v>
+      </c>
+      <c r="C135" t="s">
+        <v>659</v>
+      </c>
+      <c r="D135" t="s">
+        <v>660</v>
+      </c>
+      <c r="E135" t="s">
+        <v>661</v>
+      </c>
+      <c r="F135" t="s">
+        <v>662</v>
+      </c>
+      <c r="G135" t="s">
+        <v>4</v>
+      </c>
+      <c r="I135" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>663</v>
+      </c>
+      <c r="C136" t="s">
+        <v>664</v>
+      </c>
+      <c r="D136" t="s">
+        <v>665</v>
+      </c>
+      <c r="E136" t="s">
+        <v>666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>667</v>
+      </c>
+      <c r="G136" t="s">
+        <v>2</v>
+      </c>
+      <c r="I136" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>668</v>
+      </c>
+      <c r="C137" t="s">
+        <v>669</v>
+      </c>
+      <c r="D137" t="s">
+        <v>670</v>
+      </c>
+      <c r="E137" t="s">
+        <v>671</v>
+      </c>
+      <c r="F137" t="s">
+        <v>672</v>
+      </c>
+      <c r="G137" t="s">
+        <v>2</v>
+      </c>
+      <c r="I137" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>673</v>
+      </c>
+      <c r="C138" t="s">
+        <v>674</v>
+      </c>
+      <c r="D138" t="s">
+        <v>675</v>
+      </c>
+      <c r="E138" t="s">
+        <v>676</v>
+      </c>
+      <c r="F138" t="s">
+        <v>677</v>
+      </c>
+      <c r="G138" t="s">
+        <v>5</v>
+      </c>
+      <c r="I138" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>678</v>
+      </c>
+      <c r="C139" t="s">
+        <v>679</v>
+      </c>
+      <c r="D139" t="s">
+        <v>680</v>
+      </c>
+      <c r="E139" t="s">
+        <v>681</v>
+      </c>
+      <c r="F139" t="s">
+        <v>682</v>
+      </c>
+      <c r="G139" t="s">
+        <v>2</v>
+      </c>
+      <c r="I139" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>683</v>
+      </c>
+      <c r="C140" t="s">
+        <v>684</v>
+      </c>
+      <c r="D140" t="s">
+        <v>685</v>
+      </c>
+      <c r="E140" t="s">
+        <v>686</v>
+      </c>
+      <c r="F140" t="s">
+        <v>687</v>
+      </c>
+      <c r="G140" t="s">
+        <v>5</v>
+      </c>
+      <c r="I140" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>688</v>
+      </c>
+      <c r="C141" t="s">
+        <v>689</v>
+      </c>
+      <c r="D141" t="s">
+        <v>690</v>
+      </c>
+      <c r="E141" t="s">
+        <v>691</v>
+      </c>
+      <c r="F141" t="s">
+        <v>692</v>
+      </c>
+      <c r="G141" t="s">
+        <v>5</v>
+      </c>
+      <c r="I141" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>693</v>
+      </c>
+      <c r="C142" t="s">
+        <v>694</v>
+      </c>
+      <c r="D142" t="s">
+        <v>695</v>
+      </c>
+      <c r="E142" t="s">
+        <v>696</v>
+      </c>
+      <c r="F142" t="s">
+        <v>697</v>
+      </c>
+      <c r="G142" t="s">
+        <v>5</v>
+      </c>
+      <c r="I142" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>698</v>
+      </c>
+      <c r="C143" t="s">
+        <v>699</v>
+      </c>
+      <c r="D143" t="s">
+        <v>700</v>
+      </c>
+      <c r="E143" t="s">
+        <v>701</v>
+      </c>
+      <c r="F143" t="s">
+        <v>702</v>
+      </c>
+      <c r="G143" t="s">
+        <v>2</v>
+      </c>
+      <c r="I143" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>703</v>
+      </c>
+      <c r="C144" t="s">
+        <v>704</v>
+      </c>
+      <c r="D144" t="s">
+        <v>705</v>
+      </c>
+      <c r="E144" t="s">
+        <v>706</v>
+      </c>
+      <c r="F144" t="s">
+        <v>707</v>
+      </c>
+      <c r="G144" t="s">
+        <v>3</v>
+      </c>
+      <c r="I144" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>708</v>
+      </c>
+      <c r="C145" t="s">
+        <v>709</v>
+      </c>
+      <c r="D145" t="s">
+        <v>710</v>
+      </c>
+      <c r="E145" t="s">
+        <v>711</v>
+      </c>
+      <c r="F145" t="s">
+        <v>712</v>
+      </c>
+      <c r="G145" t="s">
+        <v>2</v>
+      </c>
+      <c r="I145" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>713</v>
+      </c>
+      <c r="C146" t="s">
+        <v>714</v>
+      </c>
+      <c r="D146" t="s">
+        <v>715</v>
+      </c>
+      <c r="E146" t="s">
+        <v>716</v>
+      </c>
+      <c r="F146" t="s">
+        <v>717</v>
+      </c>
+      <c r="G146" t="s">
+        <v>2</v>
+      </c>
+      <c r="I146" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>718</v>
+      </c>
+      <c r="C147" t="s">
+        <v>719</v>
+      </c>
+      <c r="D147" t="s">
+        <v>720</v>
+      </c>
+      <c r="E147" t="s">
+        <v>721</v>
+      </c>
+      <c r="F147" t="s">
+        <v>722</v>
+      </c>
+      <c r="G147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>723</v>
+      </c>
+      <c r="C148" t="s">
+        <v>724</v>
+      </c>
+      <c r="D148" t="s">
+        <v>725</v>
+      </c>
+      <c r="E148" t="s">
+        <v>726</v>
+      </c>
+      <c r="F148" t="s">
+        <v>727</v>
+      </c>
+      <c r="G148" t="s">
+        <v>3</v>
+      </c>
+      <c r="I148" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>728</v>
+      </c>
+      <c r="C149" t="s">
+        <v>418</v>
+      </c>
+      <c r="D149" t="s">
+        <v>729</v>
+      </c>
+      <c r="E149" t="s">
+        <v>730</v>
+      </c>
+      <c r="F149" t="s">
+        <v>731</v>
+      </c>
+      <c r="G149" t="s">
+        <v>5</v>
+      </c>
+      <c r="I149" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>732</v>
+      </c>
+      <c r="C150" t="s">
+        <v>733</v>
+      </c>
+      <c r="D150" t="s">
+        <v>734</v>
+      </c>
+      <c r="E150" t="s">
+        <v>735</v>
+      </c>
+      <c r="F150" t="s">
+        <v>736</v>
+      </c>
+      <c r="G150" t="s">
+        <v>5</v>
+      </c>
+      <c r="I150" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>737</v>
+      </c>
+      <c r="C151" t="s">
+        <v>738</v>
+      </c>
+      <c r="D151" t="s">
+        <v>739</v>
+      </c>
+      <c r="E151" t="s">
+        <v>740</v>
+      </c>
+      <c r="F151" t="s">
+        <v>741</v>
+      </c>
+      <c r="G151" t="s">
+        <v>3</v>
+      </c>
+      <c r="I151" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>742</v>
+      </c>
+      <c r="C152" t="s">
+        <v>743</v>
+      </c>
+      <c r="D152" t="s">
+        <v>744</v>
+      </c>
+      <c r="E152" t="s">
+        <v>745</v>
+      </c>
+      <c r="F152" t="s">
+        <v>746</v>
+      </c>
+      <c r="G152" t="s">
+        <v>2</v>
+      </c>
+      <c r="I152" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>747</v>
+      </c>
+      <c r="C153" t="s">
+        <v>748</v>
+      </c>
+      <c r="D153" t="s">
+        <v>749</v>
+      </c>
+      <c r="E153" t="s">
+        <v>750</v>
+      </c>
+      <c r="F153" t="s">
+        <v>751</v>
+      </c>
+      <c r="G153" t="s">
+        <v>2</v>
+      </c>
+      <c r="I153" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>752</v>
+      </c>
+      <c r="C154" t="s">
+        <v>753</v>
+      </c>
+      <c r="D154" t="s">
+        <v>754</v>
+      </c>
+      <c r="E154" t="s">
+        <v>755</v>
+      </c>
+      <c r="F154" t="s">
+        <v>756</v>
+      </c>
+      <c r="G154" t="s">
+        <v>3</v>
+      </c>
+      <c r="I154" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>757</v>
+      </c>
+      <c r="C155" t="s">
+        <v>758</v>
+      </c>
+      <c r="D155" t="s">
+        <v>759</v>
+      </c>
+      <c r="E155" t="s">
+        <v>760</v>
+      </c>
+      <c r="F155" t="s">
+        <v>761</v>
+      </c>
+      <c r="G155" t="s">
+        <v>4</v>
+      </c>
+      <c r="I155" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>762</v>
+      </c>
+      <c r="C156" t="s">
+        <v>763</v>
+      </c>
+      <c r="D156" t="s">
+        <v>764</v>
+      </c>
+      <c r="E156" t="s">
+        <v>765</v>
+      </c>
+      <c r="F156" t="s">
+        <v>766</v>
+      </c>
+      <c r="G156" t="s">
+        <v>2</v>
+      </c>
+      <c r="I156" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>767</v>
+      </c>
+      <c r="C157" t="s">
+        <v>768</v>
+      </c>
+      <c r="D157" t="s">
+        <v>769</v>
+      </c>
+      <c r="E157" t="s">
+        <v>770</v>
+      </c>
+      <c r="F157" t="s">
+        <v>771</v>
+      </c>
+      <c r="G157" t="s">
+        <v>2</v>
+      </c>
+      <c r="I157" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>772</v>
+      </c>
+      <c r="C158" t="s">
+        <v>773</v>
+      </c>
+      <c r="D158" t="s">
+        <v>774</v>
+      </c>
+      <c r="E158" t="s">
+        <v>775</v>
+      </c>
+      <c r="F158" t="s">
+        <v>776</v>
+      </c>
+      <c r="G158" t="s">
+        <v>5</v>
+      </c>
+      <c r="I158" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>777</v>
+      </c>
+      <c r="C159" t="s">
+        <v>778</v>
+      </c>
+      <c r="D159" t="s">
+        <v>779</v>
+      </c>
+      <c r="E159" t="s">
+        <v>780</v>
+      </c>
+      <c r="F159" t="s">
+        <v>781</v>
+      </c>
+      <c r="G159" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>782</v>
+      </c>
+      <c r="C160" t="s">
+        <v>783</v>
+      </c>
+      <c r="D160" t="s">
+        <v>472</v>
+      </c>
+      <c r="E160" t="s">
+        <v>784</v>
+      </c>
+      <c r="F160" t="s">
+        <v>474</v>
+      </c>
+      <c r="G160" t="s">
+        <v>2</v>
+      </c>
+      <c r="I160" t="s">
+        <v>786</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
